--- a/ChaprSVN/PriceSourceList v2.xlsx
+++ b/ChaprSVN/PriceSourceList v2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>Part Name</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Arduino Pro MINI</t>
   </si>
   <si>
-    <t>misc (screws, headers, label…)</t>
-  </si>
-  <si>
     <t>SRA21-9VBK-ND</t>
   </si>
   <si>
@@ -274,6 +271,15 @@
   </si>
   <si>
     <t>- minimum at Mouser is 31 - $6.00 at Battery Junction (+shipping)</t>
+  </si>
+  <si>
+    <t>screws to hold down board</t>
+  </si>
+  <si>
+    <t>- FMW part 1556.440316.188, 4-40 x 3/16 Phillips Pan Machine Screw 18-8 SS</t>
+  </si>
+  <si>
+    <t>misc (headers, label…)</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -448,6 +454,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -752,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L33"/>
+  <dimension ref="B3:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +774,7 @@
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="49.85546875" customWidth="1"/>
+    <col min="12" max="12" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -818,7 +825,7 @@
         <v>27.05</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>34</v>
@@ -842,11 +849,11 @@
         <v>15.95</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E24" si="0">D5*B5</f>
+        <f t="shared" ref="E5:E25" si="0">D5*B5</f>
         <v>15.95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
@@ -878,7 +885,7 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -904,10 +911,10 @@
         <v>0.09</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -930,10 +937,10 @@
         <v>0.78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -956,7 +963,7 @@
         <v>0.3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -982,7 +989,7 @@
         <v>6.8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>41</v>
@@ -992,7 +999,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1010,10 +1017,10 @@
         <v>0.25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1040,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1048,7 +1055,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1056,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6">
         <v>0.99</v>
@@ -1066,10 +1073,10 @@
         <v>0.99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1082,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6">
         <v>0.99</v>
@@ -1092,10 +1099,10 @@
         <v>0.99</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>20</v>
@@ -1104,7 +1111,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -1122,7 +1129,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>39</v>
@@ -1148,10 +1155,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1174,7 +1181,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1198,7 +1205,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1222,7 +1229,7 @@
         <v>3.85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>43</v>
@@ -1231,7 +1238,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="23"/>
     </row>
@@ -1250,7 +1257,7 @@
         <v>0.8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>44</v>
@@ -1259,7 +1266,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20" s="23"/>
     </row>
@@ -1268,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="6">
         <v>0.1</v>
@@ -1278,17 +1285,17 @@
         <v>0.1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1296,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="6">
         <v>0.06</v>
@@ -1306,17 +1313,17 @@
         <v>0.06</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -1334,10 +1341,10 @@
         <v>0.2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1350,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D24" s="6">
         <v>0.2</v>
@@ -1360,7 +1367,7 @@
         <v>0.2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1371,88 +1378,114 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D25" s="6">
-        <v>0.74</v>
+        <v>0.04</v>
       </c>
       <c r="E25" s="1">
-        <f>D25*B25</f>
-        <v>0.74</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="4" t="s">
-        <v>50</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26*B26</f>
+        <v>0.74</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>14.95</v>
       </c>
-      <c r="E26" s="11">
-        <f>D27*B26</f>
+      <c r="E27" s="11">
+        <f>D28*B27</f>
         <v>0</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="1">
-        <f>SUM(E4:E26)</f>
-        <v>75.732999999999976</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="E28" s="1">
+        <f>SUM(E4:E27)</f>
+        <v>75.85299999999998</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>26</v>
       </c>
     </row>
